--- a/public/data-import/stages.xlsx
+++ b/public/data-import/stages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sport_management\public\data-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E414E3C1-AE45-4F75-8B0D-F8EF1DC20037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6201892-F37E-4632-9F4B-13EB2C35D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4644" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>League_id</t>
+  </si>
+  <si>
+    <t>Vòng loại</t>
+  </si>
+  <si>
+    <t>Tứ kết</t>
+  </si>
+  <si>
+    <t>Bán kết</t>
+  </si>
+  <si>
+    <t>Chung kết 1</t>
+  </si>
+  <si>
+    <t>Chúng kết</t>
   </si>
 </sst>
 </file>
@@ -385,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDA6EC5-D9D1-4468-8AA7-FEB7A8C9B770}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,6 +434,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
